--- a/6_referenceseqs_metadata/PlatesGH_metadata/EI_form_SIF PRO1747_plates_G_H_qtys_loaded_20180218.xlsx
+++ b/6_referenceseqs_metadata/PlatesGH_metadata/EI_form_SIF PRO1747_plates_G_H_qtys_loaded_20180218.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Negorashi2011/Dropbox/Working_docs/Roslin_Greenland/2017/bulk_samples/ArcDyn_scripts/6_referenceseqs_metadata/PlatesGH_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0754444-735B-D74F-B270-610D6EB8F895}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F1CA1D-9B82-6F48-B0B3-FDE0FB99CC10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="127" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -32,6 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -80,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -9169,7 +9170,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D197" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField dataField="1" showAll="0">
@@ -10531,8 +10532,8 @@
   <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B148" sqref="B148"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A189" sqref="A189:XFD189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12483,57 +12484,57 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>1037</v>
+        <v>1050</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C32" s="31">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E32" s="20" t="str">
-        <f t="shared" ref="E32:E62" si="2">F32</f>
-        <v>A2</v>
+        <f>F32</f>
+        <v>A1</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>1005</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="L32" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M32" s="15">
-        <v>37.9</v>
+        <v>268.5</v>
       </c>
       <c r="N32" s="15">
         <v>50</v>
       </c>
       <c r="O32" s="15">
-        <f t="shared" si="1"/>
+        <f>N32-5</f>
         <v>45</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q32" s="15">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="R32" s="15"/>
       <c r="S32" s="15" t="s">
@@ -12545,57 +12546,57 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C33" s="31">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E33" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>F5</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>217</v>
+        <f>F33</f>
+        <v>A2</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="I33" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="J33" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="L33" s="16" t="s">
+      <c r="J33" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M33" s="15">
-        <v>129.1</v>
+        <v>37.9</v>
       </c>
       <c r="N33" s="15">
         <v>50</v>
       </c>
       <c r="O33" s="15">
-        <f t="shared" si="1"/>
+        <f>N33-5</f>
         <v>45</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q33" s="15">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="R33" s="15"/>
       <c r="S33" s="15" t="s">
@@ -12607,57 +12608,57 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>1039</v>
+        <v>1052</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C34" s="31">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E34" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>E2</v>
+        <f>F34</f>
+        <v>A3</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>1005</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M34" s="15">
-        <v>208</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="N34" s="15">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O34" s="15">
-        <f t="shared" ref="O34:O65" si="3">N34-5</f>
-        <v>45</v>
+        <f>N34-5</f>
+        <v>35</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q34" s="15">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R34" s="15"/>
       <c r="S34" s="15" t="s">
@@ -12681,7 +12682,7 @@
         <v>996</v>
       </c>
       <c r="E35" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f>F35</f>
         <v>A5</v>
       </c>
       <c r="F35" s="14" t="s">
@@ -12712,7 +12713,7 @@
         <v>50</v>
       </c>
       <c r="O35" s="15">
-        <f t="shared" si="3"/>
+        <f>N35-5</f>
         <v>45</v>
       </c>
       <c r="P35" s="15" t="s">
@@ -12731,57 +12732,57 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C36" s="31">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E36" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>G6</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>264</v>
+        <f>F36</f>
+        <v>B1</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>266</v>
+        <v>27</v>
       </c>
       <c r="I36" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="J36" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="L36" s="14" t="s">
+      <c r="J36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M36" s="15">
-        <v>278.2</v>
+        <v>66.3</v>
       </c>
       <c r="N36" s="15">
         <v>50</v>
       </c>
       <c r="O36" s="15">
-        <f t="shared" si="3"/>
+        <f>N36-5</f>
         <v>45</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q36" s="15">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R36" s="15"/>
       <c r="S36" s="15" t="s">
@@ -12793,57 +12794,57 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
-        <v>1042</v>
+        <v>1055</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C37" s="31">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E37" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>E6</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>253</v>
+        <f>F37</f>
+        <v>B2</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>255</v>
+        <v>72</v>
       </c>
       <c r="I37" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="J37" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="L37" s="14" t="s">
+      <c r="J37" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M37" s="15">
-        <v>238.9</v>
+        <v>87</v>
       </c>
       <c r="N37" s="15">
         <v>50</v>
       </c>
       <c r="O37" s="15">
-        <f t="shared" si="3"/>
+        <f>N37-5</f>
         <v>45</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q37" s="15">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="R37" s="15"/>
       <c r="S37" s="15" t="s">
@@ -12855,57 +12856,57 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>1043</v>
+        <v>1058</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C38" s="31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E38" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>H3</v>
+        <f>F38</f>
+        <v>B3</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="I38" s="15" t="s">
         <v>1005</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="L38" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M38" s="15">
-        <v>121.5</v>
+        <v>115.5</v>
       </c>
       <c r="N38" s="15">
         <v>50</v>
       </c>
       <c r="O38" s="15">
-        <f t="shared" si="3"/>
+        <f>N38-5</f>
         <v>45</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q38" s="15">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R38" s="15"/>
       <c r="S38" s="15" t="s">
@@ -12917,57 +12918,57 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>1044</v>
+        <v>1057</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C39" s="31">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E39" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>E1</v>
+        <f>F39</f>
+        <v>C1</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I39" s="15" t="s">
         <v>1005</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="L39" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M39" s="15">
-        <v>187.7</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="N39" s="15">
         <v>50</v>
       </c>
       <c r="O39" s="15">
-        <f t="shared" si="3"/>
+        <f>N39-5</f>
         <v>45</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q39" s="15">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="R39" s="15"/>
       <c r="S39" s="15" t="s">
@@ -12979,7 +12980,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>1045</v>
+        <v>1064</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>1213</v>
@@ -12991,45 +12992,45 @@
         <v>996</v>
       </c>
       <c r="E40" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>B1</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>25</v>
+        <f>F40</f>
+        <v>C2</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I40" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="J40" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L40" s="16" t="s">
+      <c r="J40" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L40" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M40" s="15">
-        <v>66.3</v>
+        <v>104.8</v>
       </c>
       <c r="N40" s="15">
         <v>50</v>
       </c>
       <c r="O40" s="15">
-        <f t="shared" si="3"/>
+        <f>N40-5</f>
         <v>45</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q40" s="15">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="R40" s="15"/>
       <c r="S40" s="15" t="s">
@@ -13040,120 +13041,120 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
-        <v>1203</v>
+      <c r="A41" s="21" t="s">
+        <v>1049</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C41" s="31">
-        <v>26</v>
-      </c>
-      <c r="D41" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E41" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>C7</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="G41" s="17" t="s">
+        <f>F41</f>
+        <v>C4</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G41" s="15" t="s">
         <v>1016</v>
       </c>
-      <c r="H41" s="27" t="s">
-        <v>1204</v>
-      </c>
-      <c r="I41" s="17" t="s">
+      <c r="H41" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="J41" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="L41" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" s="17">
-        <v>31.1</v>
-      </c>
-      <c r="N41" s="17">
-        <v>50</v>
-      </c>
-      <c r="O41" s="17">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="P41" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="17">
-        <v>1.69</v>
-      </c>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="T41" s="17" t="s">
+      <c r="J41" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="15">
+        <v>251.7</v>
+      </c>
+      <c r="N41" s="15">
+        <v>50</v>
+      </c>
+      <c r="O41" s="15">
+        <f>N41-5</f>
+        <v>45</v>
+      </c>
+      <c r="P41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>1.78</v>
+      </c>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T41" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>1046</v>
+        <v>1061</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C42" s="31">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E42" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>G5</v>
+        <f>F42</f>
+        <v>C6</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="I42" s="15" t="s">
         <v>1005</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="L42" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M42" s="15">
-        <v>46.5</v>
+        <v>211</v>
       </c>
       <c r="N42" s="15">
         <v>50</v>
       </c>
       <c r="O42" s="15">
-        <f t="shared" si="3"/>
+        <f>N42-5</f>
         <v>45</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q42" s="15">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R42" s="15"/>
       <c r="S42" s="15" t="s">
@@ -13164,120 +13165,120 @@
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
-        <v>1047</v>
+      <c r="A43" s="25" t="s">
+        <v>1203</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C43" s="31">
-        <v>1</v>
-      </c>
-      <c r="D43" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>996</v>
       </c>
       <c r="E43" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>D2</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G43" s="15" t="s">
+        <f>F43</f>
+        <v>C7</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="G43" s="17" t="s">
         <v>1016</v>
       </c>
-      <c r="H43" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I43" s="15" t="s">
+      <c r="H43" s="27" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I43" s="17" t="s">
         <v>1005</v>
       </c>
-      <c r="J43" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L43" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M43" s="15">
-        <v>86.4</v>
-      </c>
-      <c r="N43" s="15">
-        <v>50</v>
-      </c>
-      <c r="O43" s="15">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="P43" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q43" s="15">
-        <v>1.76</v>
-      </c>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="T43" s="15" t="s">
+      <c r="J43" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="17">
+        <v>31.1</v>
+      </c>
+      <c r="N43" s="17">
+        <v>50</v>
+      </c>
+      <c r="O43" s="17">
+        <f>N43-5</f>
+        <v>45</v>
+      </c>
+      <c r="P43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="17">
+        <v>1.69</v>
+      </c>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T43" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>1212</v>
       </c>
       <c r="C44" s="31">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E44" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>F6</v>
+        <f>F44</f>
+        <v>D2</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="I44" s="15" t="s">
         <v>1005</v>
       </c>
       <c r="J44" s="16" t="s">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>259</v>
+        <v>82</v>
       </c>
       <c r="L44" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M44" s="15">
-        <v>135.19999999999999</v>
+        <v>86.4</v>
       </c>
       <c r="N44" s="15">
         <v>50</v>
       </c>
       <c r="O44" s="15">
-        <f t="shared" si="3"/>
+        <f>N44-5</f>
         <v>45</v>
       </c>
       <c r="P44" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q44" s="15">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R44" s="15"/>
       <c r="S44" s="15" t="s">
@@ -13289,57 +13290,57 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>1049</v>
+        <v>1063</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C45" s="31">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E45" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>C4</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>162</v>
+        <f>F45</f>
+        <v>D4</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I45" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="J45" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="L45" s="14" t="s">
+      <c r="J45" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L45" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M45" s="15">
-        <v>251.7</v>
+        <v>106.2</v>
       </c>
       <c r="N45" s="15">
         <v>50</v>
       </c>
       <c r="O45" s="15">
-        <f t="shared" si="3"/>
+        <f>N45-5</f>
         <v>45</v>
       </c>
       <c r="P45" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q45" s="15">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R45" s="15"/>
       <c r="S45" s="15" t="s">
@@ -13351,57 +13352,57 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C46" s="31">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E46" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>A1</v>
+        <f>F46</f>
+        <v>E1</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I46" s="15" t="s">
         <v>1005</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="L46" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M46" s="15">
-        <v>268.5</v>
+        <v>187.7</v>
       </c>
       <c r="N46" s="15">
         <v>50</v>
       </c>
       <c r="O46" s="15">
-        <f t="shared" si="3"/>
+        <f>N46-5</f>
         <v>45</v>
       </c>
       <c r="P46" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q46" s="15">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="R46" s="15"/>
       <c r="S46" s="15" t="s">
@@ -13413,57 +13414,57 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>1212</v>
       </c>
       <c r="C47" s="31">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E47" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>G1</v>
+        <f>F47</f>
+        <v>E2</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="I47" s="15" t="s">
         <v>1005</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="L47" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M47" s="15">
-        <v>307.10000000000002</v>
+        <v>208</v>
       </c>
       <c r="N47" s="15">
         <v>50</v>
       </c>
       <c r="O47" s="15">
-        <f t="shared" si="3"/>
+        <f>N47-5</f>
         <v>45</v>
       </c>
       <c r="P47" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q47" s="15">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R47" s="15"/>
       <c r="S47" s="15" t="s">
@@ -13475,57 +13476,57 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C48" s="31">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E48" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>A3</v>
+        <f>F48</f>
+        <v>E3</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="I48" s="15" t="s">
         <v>1005</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="L48" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M48" s="15">
-        <v>163.30000000000001</v>
+        <v>36.6</v>
       </c>
       <c r="N48" s="15">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O48" s="15">
-        <f t="shared" si="3"/>
-        <v>35</v>
+        <f>N48-5</f>
+        <v>45</v>
       </c>
       <c r="P48" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q48" s="15">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R48" s="15"/>
       <c r="S48" s="15" t="s">
@@ -13537,57 +13538,57 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C49" s="31">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D49" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E49" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>F1</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>48</v>
+        <f>F49</f>
+        <v>E6</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="I49" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="J49" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K49" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L49" s="16" t="s">
+      <c r="J49" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="L49" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M49" s="15">
-        <v>130.80000000000001</v>
+        <v>238.9</v>
       </c>
       <c r="N49" s="15">
         <v>50</v>
       </c>
       <c r="O49" s="15">
-        <f t="shared" si="3"/>
+        <f>N49-5</f>
         <v>45</v>
       </c>
       <c r="P49" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q49" s="15">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R49" s="15"/>
       <c r="S49" s="15" t="s">
@@ -13599,57 +13600,57 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C50" s="31">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E50" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>H1</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>59</v>
+        <f>F50</f>
+        <v>E7</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="I50" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="J50" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K50" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="L50" s="16" t="s">
+      <c r="J50" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="L50" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M50" s="15">
-        <v>132.1</v>
+        <v>153.6</v>
       </c>
       <c r="N50" s="15">
         <v>50</v>
       </c>
       <c r="O50" s="15">
-        <f t="shared" si="3"/>
+        <f>N50-5</f>
         <v>45</v>
       </c>
       <c r="P50" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q50" s="15">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="R50" s="15"/>
       <c r="S50" s="15" t="s">
@@ -13661,57 +13662,57 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B51" s="30" t="s">
         <v>1213</v>
       </c>
       <c r="C51" s="31">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D51" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E51" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>B2</v>
+        <f>F51</f>
+        <v>F1</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I51" s="15" t="s">
         <v>1005</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="K51" s="16" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="L51" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M51" s="15">
-        <v>87</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="N51" s="15">
         <v>50</v>
       </c>
       <c r="O51" s="15">
-        <f t="shared" si="3"/>
+        <f>N51-5</f>
         <v>45</v>
       </c>
       <c r="P51" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q51" s="15">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="R51" s="15"/>
       <c r="S51" s="15" t="s">
@@ -13723,57 +13724,57 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C52" s="31">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E52" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>E3</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>128</v>
+        <f>F52</f>
+        <v>F2</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="G52" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="I52" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="J52" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="L52" s="14" t="s">
+      <c r="J52" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M52" s="15">
-        <v>36.6</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="N52" s="15">
         <v>50</v>
       </c>
       <c r="O52" s="15">
-        <f t="shared" si="3"/>
+        <f>N52-5</f>
         <v>45</v>
       </c>
       <c r="P52" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q52" s="15">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="R52" s="15"/>
       <c r="S52" s="15" t="s">
@@ -13785,57 +13786,57 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B53" s="30" t="s">
         <v>1212</v>
       </c>
       <c r="C53" s="31">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E53" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>C1</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>31</v>
+        <f>F53</f>
+        <v>F4</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="I53" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="J53" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K53" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L53" s="14" t="s">
+      <c r="J53" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K53" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L53" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M53" s="15">
-        <v>129.69999999999999</v>
+        <v>208.9</v>
       </c>
       <c r="N53" s="15">
         <v>50</v>
       </c>
       <c r="O53" s="15">
-        <f t="shared" si="3"/>
+        <f>N53-5</f>
         <v>45</v>
       </c>
       <c r="P53" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q53" s="15">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R53" s="15"/>
       <c r="S53" s="15" t="s">
@@ -13847,57 +13848,57 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>1058</v>
+        <v>1038</v>
       </c>
       <c r="B54" s="30" t="s">
         <v>1212</v>
       </c>
       <c r="C54" s="31">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E54" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>B3</v>
+        <f>F54</f>
+        <v>F5</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="I54" s="15" t="s">
         <v>1005</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="K54" s="16" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="L54" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M54" s="15">
-        <v>115.5</v>
+        <v>129.1</v>
       </c>
       <c r="N54" s="15">
         <v>50</v>
       </c>
       <c r="O54" s="15">
-        <f t="shared" si="3"/>
+        <f>N54-5</f>
         <v>45</v>
       </c>
       <c r="P54" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q54" s="15">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R54" s="15"/>
       <c r="S54" s="15" t="s">
@@ -13909,57 +13910,57 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="B55" s="30" t="s">
         <v>1212</v>
       </c>
       <c r="C55" s="31">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E55" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>F4</v>
+        <f>F55</f>
+        <v>F6</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="I55" s="15" t="s">
         <v>1005</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="K55" s="16" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="L55" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M55" s="15">
-        <v>208.9</v>
+        <v>135.19999999999999</v>
       </c>
       <c r="N55" s="15">
         <v>50</v>
       </c>
       <c r="O55" s="15">
-        <f t="shared" si="3"/>
+        <f>N55-5</f>
         <v>45</v>
       </c>
       <c r="P55" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q55" s="15">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="R55" s="15"/>
       <c r="S55" s="15" t="s">
@@ -13971,57 +13972,57 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>1212</v>
       </c>
       <c r="C56" s="31">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E56" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>E7</v>
+        <f>F56</f>
+        <v>G1</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>298</v>
+        <v>56</v>
       </c>
       <c r="I56" s="15" t="s">
         <v>1005</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>295</v>
+        <v>53</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>297</v>
+        <v>55</v>
       </c>
       <c r="L56" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M56" s="15">
-        <v>153.6</v>
+        <v>307.10000000000002</v>
       </c>
       <c r="N56" s="15">
         <v>50</v>
       </c>
       <c r="O56" s="15">
-        <f t="shared" si="3"/>
+        <f>N56-5</f>
         <v>45</v>
       </c>
       <c r="P56" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q56" s="15">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="R56" s="15"/>
       <c r="S56" s="15" t="s">
@@ -14033,57 +14034,57 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C57" s="31">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E57" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>C6</v>
+        <f>F57</f>
+        <v>G3</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>244</v>
+        <v>139</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="I57" s="15" t="s">
         <v>1005</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c r="L57" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M57" s="15">
-        <v>211</v>
+        <v>52.7</v>
       </c>
       <c r="N57" s="15">
         <v>50</v>
       </c>
       <c r="O57" s="15">
-        <f t="shared" si="3"/>
+        <f>N57-5</f>
         <v>45</v>
       </c>
       <c r="P57" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q57" s="15">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="R57" s="15"/>
       <c r="S57" s="15" t="s">
@@ -14095,57 +14096,57 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>1062</v>
+        <v>1046</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C58" s="31">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E58" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>F2</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>90</v>
+        <f>F58</f>
+        <v>G5</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="I58" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="J58" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="K58" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="L58" s="16" t="s">
+      <c r="J58" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="K58" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="L58" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M58" s="15">
-        <v>81.900000000000006</v>
+        <v>46.5</v>
       </c>
       <c r="N58" s="15">
         <v>50</v>
       </c>
       <c r="O58" s="15">
-        <f t="shared" si="3"/>
+        <f>N58-5</f>
         <v>45</v>
       </c>
       <c r="P58" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q58" s="15">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="R58" s="15"/>
       <c r="S58" s="15" t="s">
@@ -14157,57 +14158,57 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>1063</v>
+        <v>1041</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C59" s="31">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E59" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>D4</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>167</v>
+        <f>F59</f>
+        <v>G6</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="I59" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="J59" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="K59" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="L59" s="16" t="s">
+      <c r="J59" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="L59" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M59" s="15">
-        <v>106.2</v>
+        <v>278.2</v>
       </c>
       <c r="N59" s="15">
         <v>50</v>
       </c>
       <c r="O59" s="15">
-        <f t="shared" si="3"/>
+        <f>N59-5</f>
         <v>45</v>
       </c>
       <c r="P59" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q59" s="15">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="R59" s="15"/>
       <c r="S59" s="15" t="s">
@@ -14219,7 +14220,7 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="21" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="B60" s="30" t="s">
         <v>1213</v>
@@ -14231,45 +14232,45 @@
         <v>996</v>
       </c>
       <c r="E60" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>C2</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>75</v>
+        <f>F60</f>
+        <v>H1</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="I60" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="J60" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="K60" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L60" s="14" t="s">
+      <c r="J60" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L60" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M60" s="15">
-        <v>104.8</v>
+        <v>132.1</v>
       </c>
       <c r="N60" s="15">
         <v>50</v>
       </c>
       <c r="O60" s="15">
-        <f t="shared" si="3"/>
+        <f>N60-5</f>
         <v>45</v>
       </c>
       <c r="P60" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q60" s="15">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="R60" s="15"/>
       <c r="S60" s="15" t="s">
@@ -14281,57 +14282,57 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>1065</v>
+        <v>1043</v>
       </c>
       <c r="B61" s="30" t="s">
         <v>1213</v>
       </c>
       <c r="C61" s="31">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>996</v>
       </c>
       <c r="E61" s="20" t="str">
-        <f t="shared" si="2"/>
-        <v>G3</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>139</v>
+        <f>F61</f>
+        <v>H3</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>1016</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="I61" s="15" t="s">
         <v>1005</v>
       </c>
-      <c r="J61" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="L61" s="14" t="s">
+      <c r="J61" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L61" s="16" t="s">
         <v>17</v>
       </c>
       <c r="M61" s="15">
-        <v>52.7</v>
+        <v>121.5</v>
       </c>
       <c r="N61" s="15">
         <v>50</v>
       </c>
       <c r="O61" s="15">
-        <f t="shared" si="3"/>
+        <f>N61-5</f>
         <v>45</v>
       </c>
       <c r="P61" s="15" t="s">
         <v>20</v>
       </c>
       <c r="Q61" s="15">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="R61" s="15"/>
       <c r="S61" s="15" t="s">
@@ -14355,7 +14356,7 @@
         <v>996</v>
       </c>
       <c r="E62" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E32:E62" si="2">F62</f>
         <v>D8</v>
       </c>
       <c r="F62" s="16" t="s">
@@ -14386,7 +14387,7 @@
         <v>50</v>
       </c>
       <c r="O62" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O34:O65" si="3">N62-5</f>
         <v>45</v>
       </c>
       <c r="P62" s="15" t="s">
@@ -22516,8 +22517,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:T193" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:T193">
-      <sortCondition ref="A1:A193"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:T61">
+      <sortCondition ref="E1:E193"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22531,14 +22532,7 @@
   <dimension ref="A3:D197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A5:A196"/>
-      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="8" previousRow="8" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-          <references count="1">
-            <reference field="2" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24932,7 +24926,7 @@
   <dimension ref="A1:O193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
